--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value447.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value447.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.443954445390595</v>
+        <v>1.104986190795898</v>
       </c>
       <c r="B1">
-        <v>1.483112145891977</v>
+        <v>1.911372423171997</v>
       </c>
       <c r="C1">
-        <v>1.663183092964752</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.560706416408045</v>
+        <v>2.178259372711182</v>
       </c>
       <c r="E1">
-        <v>1.977112353434134</v>
+        <v>1.222580432891846</v>
       </c>
     </row>
   </sheetData>
